--- a/references/face mask mandate period.xlsx
+++ b/references/face mask mandate period.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ye025/Documents/GitHub/face_mask_predictors/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B634BE7C-84E0-FD46-A152-78B61275B410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB50F50-0D36-AC4B-B58D-4AC6BE123898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27300" windowHeight="16940" xr2:uid="{E2E3D5C3-BAD7-1546-8395-8C96B4C8B064}"/>
   </bookViews>
@@ -174,9 +174,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +214,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -320,7 +320,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -462,7 +462,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7261BDBF-6DF2-8445-AD30-2B0DD28E002B}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="A1:C9"/>
+    <sheetView tabSelected="1" zoomScale="212" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,15 +560,19 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1">
+        <v>44549</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44625</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>44548</v>
+        <v>44376</v>
       </c>
       <c r="C5" s="1">
         <v>44627</v>
@@ -601,7 +605,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44059</v>
+        <v>44035</v>
       </c>
       <c r="C8" s="1">
         <v>44826</v>
@@ -654,10 +658,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>44309</v>
+        <v>44553</v>
       </c>
       <c r="C9" s="1">
-        <v>44813</v>
+        <v>44680</v>
       </c>
       <c r="D9" s="1">
         <v>44310</v>
